--- a/biology/Histoire de la zoologie et de la botanique/Musée_Goulandris_d'histoire_naturelle/Musée_Goulandris_d'histoire_naturelle.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Musée_Goulandris_d'histoire_naturelle/Musée_Goulandris_d'histoire_naturelle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mus%C3%A9e_Goulandris_d%27histoire_naturelle</t>
+          <t>Musée_Goulandris_d'histoire_naturelle</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le musée Goulandris d'histoire naturelle[1] (en grec moderne : Μουσείο Γουλανδρή Φυσικής Ιστορίας) est un musée d'histoire naturelle situé au numéro 13 de la rue Levidou, dans la municipalité du Céphise (Kephissia, en grec Κηφισιά), à Athènes.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le musée Goulandris d'histoire naturelle (en grec moderne : Μουσείο Γουλανδρή Φυσικής Ιστορίας) est un musée d'histoire naturelle situé au numéro 13 de la rue Levidou, dans la municipalité du Céphise (Kephissia, en grec Κηφισιά), à Athènes.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mus%C3%A9e_Goulandris_d%27histoire_naturelle</t>
+          <t>Musée_Goulandris_d'histoire_naturelle</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fondé en 1965, le musée Goulandris d'histoire naturelle doit son nom à ses mécènes, les descendants de Ioannis Goulandris, un richissime armateur originaire de l'île d'Andros, qui ont également financé le musée d'Art cycladique d'Athènes, et bien d'autres projets à travers la fondation familiale.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Mus%C3%A9e_Goulandris_d%27histoire_naturelle</t>
+          <t>Musée_Goulandris_d'histoire_naturelle</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Fonctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Comme la plupart des musées d'histoire naturelle, le musée Goulandris a une triple fonction de conservation de collections, de recherche et de diffusion de la culture scientifique :
 Recherches sur la biodiversité, la géologie, la pédologie, l'agriculture, les eaux et forêts de Grèce, et identification des roches, minéraux, fossiles et espèces ;
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Mus%C3%A9e_Goulandris_d%27histoire_naturelle</t>
+          <t>Musée_Goulandris_d'histoire_naturelle</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,7 +593,9 @@
           <t>Collections</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le musée Goulandris a plusieurs centaines de milliers de spécimens dans ses collections, servant de référence à ses recherches. Le programme « Documentation, numérisation et promotion des Collections » a déjà numérisé 87 000 spécimens de Botanique, Biologie marine, Géologie, Paléontologie et Zoologie, désormais accessibles sur les banques de données de l'établissement. Le musée Goulandris conserve notamment l'herbier de Constantin Goulimis, un botaniste amateur, auteur d'une monumentale « Flore sauvage de Grèce ».
 </t>
@@ -590,7 +608,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Mus%C3%A9e_Goulandris_d%27histoire_naturelle</t>
+          <t>Musée_Goulandris_d'histoire_naturelle</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -608,7 +626,9 @@
           <t>Éducation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La diffusion de la culture scientifique auprès du grand public, des enseignants et des scolaires fait l'objet de programmes spécifiques :
 familiarisation avec les milieux naturels,
